--- a/Data/h2hCustomerSecurity.xlsx
+++ b/Data/h2hCustomerSecurity.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynesinclair/Documents/MyProjects/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DECBE05-1747-EF41-AADC-EF5C0FDCD5E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerSecurity1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Legal Entity Name</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Push or Pull</t>
   </si>
   <si>
-    <t>Pull</t>
-  </si>
-  <si>
     <t>Signing</t>
   </si>
   <si>
@@ -59,61 +57,6 @@
     <t>PGP Expiry Date</t>
   </si>
   <si>
-    <t>-----BEGIN PGP PUBLIC KEY BLOCK-----
-mQINBFq0+eABEACxV7Z16+rqKHsg5QAQmmDlB5MtCfnAp+SUjqDBOSz6nDT83YQq
-2Q8m5G9UxK63L9KU/dYdswIORlIHe1mo0ftTs2yqvExzSCZx8VgEGJL5bHcRRqgG
-Bh92rL0pJsGiJmtGb0XK65fqXDYZSB7fGFdZ34GStGwj1YtauWxKuKzutjFl0NzV
-Z2uzn19x/iK5z630sXareOXi5jEiGFpEqnU6Y+tmJ46M7o1JH7YJMT8J7sVCY7+6
-ObaEtIR6XZdFZhMicEp41LIBKdQoX1y8uNP1ewpxlnSoUWPKB+2DReifWj58m2MN
-nsjp9a3+oBNuLysVajwVDUT2zgQWQ22/3Rpe63cSNVL386kwIDjFs+03HJ/tec8f
-gKZStg8ximuBt2hA1JKfEE37Gf74HmVnI8pm6RUtzHYdcvfbJ9c1FScFHIldSeg0
-uZqU/Uq2Tujmt+IhAIyBHQZmYQ5eWQe2J8RLAtyQEsDG7TolzkWcf3W2BWGDGRvg
-X/aOMJUTmqQWoq7W12K9p5NM2R9Dv8uyCOcG3FpZB4+epbGQVtpwAbynXxC3mV1h
-QZ3Eeb/1lWE5hp2r1MP6y9ItXFMtw2sNw+OE1MWYzgBT6x3Kz0PUbFFByKQe6yNQ
-4zmTNfMXy8lKsen3ooHvrQh64HA/DipMctmB9rJDGJ4R2cyyX7VHtrcyywARAQAB
-tANwZ3CJAlQEEwEIAD4WIQSFhgdalkgMNNOCzPVsVkrN65h9RwUCWrT54AIbAwUJ
-B4YfgAULCQgHAgYVCAkKCwIEFgIDAQIeAQIXgAAKCRBsVkrN65h9RzzlEACSxXRX
-T2bL1Jp14VXTVn0o7ZB73EmdoFNGSL7zpCOopaopL/IYKgUvZimNLr2KFL/CX4Mu
-Djc64gMkqHOJ0vIf1xweoZpdIyO9GmZYbjln9mdosYa0lYrlFVYJAxOuvV8lM1mq
-KPZ+Msz+8f+GfMQtwwUCg40PvUjEp9pSXxqsdQiBo7zwE9qYq/XiTXuDGpYph5qM
-PzEPcAIfTP0B/p05eRPMfVQbTom0cP6ssn93koOuIfyBUAGrin/fVVqTDu+eClcf
-aGlZzgmx81E+yACmnyQP7SYWv+LKiwpfK5xlsETX1sdBHfOajyrhn/MJXksX6e4x
-rAqVmp6BzTi89i6QOKI03ylosizvVJI+obXw4i2VRmhxrnPwgV9bVGRntDaChszT
-z4cFsCi7eW75rb3q7plzL5lRb6yJ5kJdmOVSEBzcbphZHjM6PvwWYSnBiWiLDyjK
-5Z03WEcvWaF3jSvjaHTtgqFXWb+gDTCV7x6F/Fzv2UR+UdTptNVA+XAFl8fOjNaT
-mJ2wj33E5As7CoFn6709Pa6NY5cf85XN2OODlvmjv1OlndvntUopA/vNUNXoTBsx
-Si3OyHTSRSvvVb2SlesZ925WR/QzUCP+RmsIAuOeAISSMahhFAyZIuEj+DCcVgRd
-YgOgsMlSVMrJ84eiD2vwi4y0j+8XSKEhbijkGbkCDQRatPngARAA3gNMbZb67/ql
-5pgWlQ/MX3bhxoqj/TlDH9/grfG1EFOgwAPdjwhye1BX3VvHWynHhE/AFeIf+4td
-o8U1VGZCa40Cogd997ryJTpcdrMmHqH+ud5pc1VqoRE2/pt+r3fbk0OP9h+RKtGk
-xvKXePOYp0fMJLalRHpJcIDKA9lEJlVJhQZXq/dlIADH+bdypfx3ZSVnE3luzv+W
-zLtx8CucGO7HSZUByDRnYNvzGUhD/ri5KBfDEOyvFlyzP3mYxblwQnBzQgZ18cTW
-eFjFKe+eny1lSYZRh23PFxMzN6V8EYqdUh5ugkv+cKEgguhIFMbBj8u8QHTVxjVA
-9OxT+iHtBHNQpe5wiZ8L3iJxpnNc647yYv8QUzrThMRNT7qxdmBi4Iy7hBM6+hR8
-UEa+dVQIMxAfPpHOZj46jDktBXEMLyguGwdMdPkSjD+3+e/dVH9Pysadn0sQ5SSV
-DrCu5d40E1+YrT8tYiqnyarr1O7HhYxsm5/2Wa4dPTELSUEJOqVBS/i9M38PD1nr
-YT6s7/olASy5jwyETZ/ITmkxyNh03/041YTKw72DWt1gTlTq6jACihVYuvryEVCC
-w2TuqDfiow5FKfV3DlIwgGNoBqr2odyY0PlgVHkFOU33QwZJVv/6B427ECCAtNXr
-aTLQFHfVqvCNA9lB479H2EOzvq/x3mMAEQEAAYkCPAQYAQgAJhYhBIWGB1qWSAw0
-04LM9WxWSs3rmH1HBQJatPngAhsMBQkHhh+AAAoJEGxWSs3rmH1HziUP/R9QFO91
-p9b1KQK/2kuIk55a/FvoyMSTjmxU+G6yDP/+t0VgzxVcaXKNBsSBauA6FMYieY9l
-Tymwx1RTjd8dr6V2Zu3dFCYtJ1s0QDAMIlwDkVD7ZIlFfGhqQbpa3vB4hXy/TLYI
-eW56su8yXg4NDaXs2OFTTvitEjtQY+scsSWqY60y+y97h93YhWp7oXndAXQw8Zfs
-585o9XOhhdDxhT1vyff9McxQajUMrmSoW2Y8/HO02dZXiOqfKwWs1ZinN+HPG+oP
-xLiV1+Vo0N4969yuMt1mwKd3uf+amo7Olh53GiokaQoJMxTUtWocI9hyFUc1QJto
-arpLa7Lol5DnitVyc7N9PMu3QAVIHM5/S/fmp+CEvCA4pKFFvA3Y82iOs4Owa3OW
-Iy898DLR0YlJjRCuZDeEh+hKl5Cbv0zPDBZsswhnAyBNSrMzQI+xDcpbSkqMT7Co
-L4tOJdhf5dCMxdS/KvFam5UqrNr62/Sl9eZ5iPSwd3/sYohWlQZjBpvaenXgJc9K
-IDYPVbpbN+g5sn1QeDLpGQg1MxIHzUP6jZmJtUqRov/k3GSJhdFutDzQ4jRqfe7P
-wmSgc6qhgB3MYFJ889Uxhbr6wkJDobnSwqA7+xUwc668hGfoYRz6iZ4fUdBSes3r
-NRClmBkrBZlBJiRKGVrNN3LkZrPKZUjXOJ3D
-=fXrw
------END PGP PUBLIC KEY BLOCK-----G6</t>
-  </si>
-  <si>
-    <t>SHA256:onkBYCoNxZShPl2KIA5JdjSbcg7Ke0IxJg6EeaUCFJk</t>
-  </si>
-  <si>
     <t>PGP Fingerprint Status</t>
   </si>
   <si>
@@ -147,16 +90,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Push</t>
-  </si>
-  <si>
     <t>20190102</t>
   </si>
   <si>
     <t>20200102</t>
-  </si>
-  <si>
-    <t>X509</t>
   </si>
   <si>
     <t>-----BEGIN CERTIFICATE-----
@@ -177,11 +114,72 @@
 hanqGYKAaFpp5Quj8WEaJbi3dbM=
 -----END CERTIFICATE-----</t>
   </si>
+  <si>
+    <t>-----BEGIN PGP PUBLIC KEY BLOCK-----
+mQINBFrHDREBEADq44jpDgxOEPO6S0Il/CT4WhbVzU+HHtDqXl1frXXoLnojY1NH
+kYQ6Y0DQ+GL54zfh5GqSA1N1nkFpuZujP2TaNicMk1wAquE7LmXoRIbLzhSS5Nkr
+uMEej7T/tb+6QXeptuXMMHvNoUUmxq86bteflUPoUkYxspMvFivk5haRoUqtWsTV
+BQW14jMdsAU0r3dEvKzsIUkaIu27nVuejEW7NJ2a8S2+xnGaRPEHPMsAAbVbm3/d
+7oZjGgS99I9QNMzwvWWF80o8Txm9ZOrgjag2n/NvdJcVr9eOHbabHRuAG8C8lQ2s
+0u+wunb8kHqXwCUcs62IviOdL/dWpQ2qJKA/ExAR98zEyGqwodPjh53MgMYazdyJ
+F8RuKKGjWqoLC28f+GmxZJ8k2o5t8dG5zZ0H79Eg0yuAkfVtCi3vwprfQDcR0c2Z
+JqhWgwLs8Q+RMn/d6DsoR4O/G58uL8DvcDuqCeVrzLg+bfqvD5ghAqQ8KQCTYX8R
+4mw7ll8CuEjSjBH/3tk0CKLEfspBg+8bo3d53SS5YPwr0KLVA7IHkqNOytBxpAb9
+4muwJGj1PYn7XTR23do+f8ve/htxmYujuLMkpRYC6AxEExlREs8nxUl2MpsKzyDz
+0KJATIC3/BcqhjlULbSsCglyosKnyYGf1vXIQnHWKhrxm5j4VKI7ay72vQARAQAB
+tAVwZ3AwM4kCVAQTAQgAPhYhBHpWDUAE+7ucmYkJuuCBahinLn2zBQJaxw0RAhsD
+BQkHhh+ABQsJCAcCBhUICQoLAgQWAgMBAh4BAheAAAoJEOCBahinLn2zqzYP/Rvu
+KtNNXzjTjaEWNvBPFuhunCtiAB5FDgZIA7Z91QDFCjsrdSZDSpgR7Xx+ezmdmQUk
+DkhoRsSom2C9TpJYUwWm3dWi8mmIHscLRx7EAe8w/mqC4/mD73eYmZUD6+WUXOZF
++bkyd1FqE86bJmpGeH0jJWV61Ua6+bgvyO838O1ANFQ1SFOyVsVI7dOz0ezSIsxx
+dRzlfbPi6Spu8/uJcd0VrXaOlNxXVEO6mr1QcrrmRzDq/sHLOSF/zs1YIpoucKug
+vmOAX+RCm1kficNgDqvqWH+v5eLWSoINEkN9+Po7Dub8lMAIYhvYKqOJqYwPvEK6
+0Tl5V4rFMs4roa66kqjKWkDEvHMjsQUyeFnIqRdZW8xcrqvFEcS6LqMkBZDD5nYT
+kHd8JSVQ1BzUOCeUQ69BcMFVgmdsYNZKdBIurkaCgvox86dMAxPBINowz4gSeX3c
+OBYt+GErv6dL0SOpqkD4Z5MSfDvh9Wqr75UUIJBc2DEjke3oDL1SGF0KugE9krUM
+jD7FVlatTSFKfKmXwBJASQnHDskr4dJCABZph7Qe3Q6gi+W2IiiTz3H6QF8gqP4t
+RNoqWSlRZ68f+xth1vjrlI6z+HEWwtfouTv9+SV90uxWPkBn9/o/dBPvZQeNFKBG
+2PlbkBWUNopoY9oMNT3PSTTPT1aKwrtXiNjpw/dGuQINBFrHDREBEADqm+HuzZx4
+n1pmx/4+TIK4QkB4/otJy/Ljr9PX8XAdU4K10mq7nw1GWcZ6qlv1v+GHAO+/1OAb
+2ZVOM2TZ/OT5Xo4IJUi5WAcOfEGFp3oBbWmQlRATO1hggz0O6ux5oHdVmru92DK9
+nz4/vEQWVs/Wcqp9ewCFZtPqw3EPMCV4E9fwmHtTvbbzPDxENJbQaTeHYgJ5uxmf
+7KOSjGtMo4iOb/Ikq9QjxPdMfbfF2sBXdZLkgMjWctA417oR7MdGh4nv9byZk2WI
+Okw6AQzo4uxhiILJEyBEh64Wz0RSCW/dRAB/NXoycR4CVY1WfFnwJwPmRx0FYfu0
+FDzgdLiC5mgD9zto6M/MBxgruqlSsXYqSDK3JuXc+oJeGM7ERn7A+jlhPXi0gmm4
+EfLst9vmL77uL9DckLt79f8eeWZ/2X3B6hyr3Z6XYKMSAA4rcyqir1qvDUPztc3P
+6qUerTp8Y5Ne56T3eIuFu0QO7owQdRc71UGbslURQe82vu0AKs1m8DwduQdJ91OD
+hz5rlfhyCXLxCTmnKQHgDTatJq4aEIBukzwxFoe2PhfFGr8vB+d4qmta9onQ4ie1
+1vuRLuPM3GrUs8E5/PiZ51wgSfkJvvwbYT7oQAAQj5EmjsqYC1vfK48EELxotxV1
+W5HCUPxmhwVOAQXWFIp1+o50kP+k481U/QARAQABiQI8BBgBCAAmFiEEelYNQAT7
+u5yZiQm64IFqGKcufbMFAlrHDRECGwwFCQeGH4AACgkQ4IFqGKcufbMUxg/+NS+l
+ALm4ktml7o/x7a/FyH9oaES0mtiI4aEV05A4qfVi2i79Yq2VJfnkZw9OB//7/FSJ
+7UKzjTVv74IkyUVwenLHxPQ+6xK6vM+B4jl+at8o6qB8G1kNfdWU6v57fuVKgQMa
+lLyKBVl30c1qC2jgMSZOuN8KRHOrg+ntY0AbBldoZArZht5cFEkInjRnZvRUfdmF
+Xq+yF4GfCLce0fc4B1s0FkFWcrmBZ5iuWR4ItsPjVG+C8HSsez5cKyFyGIQwjyA9
+ELOe8ZZLtKVwPa0tKBXEwsF2e7svytNlZ4RCGveEiDKnR2jWl+X8eSfUEE0nBMSn
+/poZVW9br7BH0UoungOouGPcyuzUAqLXhDvzhTRNRzIc4UJSemHufv9TWoKROvkx
+ySg3pMji5hJB8RktittDRCdaDPS0IwXpjWjO+5BdvDWd5jesb2pyhndaIv7ZGxW3
+c+yImb37yG80JP/G2qPYa5L69s6KFtWXZsLuAsLD8olsYfZxDru+3rk39F9Xq1rK
+bh4SRXiiFGhrR8GBNUGaF8aNu7MTB7coOadG/Ct9ll8qn/4gLkO1CiL7R3bRUDHk
+0vRyqU8GtVthgaIVJEB8wDHqhh/0Kx4eoiLNVV0EsFKTLn07MRhqpxHDV0vpp9BD
+Bul8edhGVMHT2lyefN6PX+wscky3rcPyPbfP4nY=
+=Ohtl
+-----END PGP PUBLIC KEY BLOCK-----G2</t>
+  </si>
+  <si>
+    <t>7A56 0D40 04FB BB9C 9989  09BA E081 6A18 A72E 7DB3</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -244,6 +242,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -511,12 +512,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,137 +548,184 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="409" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="409" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>25</v>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
